--- a/mobi_client/mobi_client/mobi_config/has_limit_state_excel/017_AVG中的服务器行为.xlsx
+++ b/mobi_client/mobi_client/mobi_config/has_limit_state_excel/017_AVG中的服务器行为.xlsx
@@ -1,25 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel_has_limit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D104D0-F2D6-4717-A363-C44BF4A2433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21270" windowHeight="14190"/>
+    <workbookView xWindow="-25290" yWindow="1455" windowWidth="14835" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avgServerAction|服务器行为++" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -36,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -80,6 +99,93 @@
     <t>string</t>
   </si>
   <si>
+    <t>11;50</t>
+  </si>
+  <si>
+    <t>序章中凯瑟琳好感度+50</t>
+  </si>
+  <si>
+    <t>12;50</t>
+  </si>
+  <si>
+    <t>序章中聂飞好感度+50</t>
+  </si>
+  <si>
+    <t>13;50</t>
+  </si>
+  <si>
+    <t>序章中涂凌好感度+50</t>
+  </si>
+  <si>
+    <t>11;100</t>
+  </si>
+  <si>
+    <t>序章中凯瑟琳好感度+100</t>
+  </si>
+  <si>
+    <t>12;100</t>
+  </si>
+  <si>
+    <t>序章中聂飞好感度+100</t>
+  </si>
+  <si>
+    <t>13;100</t>
+  </si>
+  <si>
+    <t>序章中涂凌好感度+100</t>
+  </si>
+  <si>
+    <t>11;200|12;100</t>
+  </si>
+  <si>
+    <t>12;200|13;100</t>
+  </si>
+  <si>
+    <t>11;100|12;100|13;100</t>
+  </si>
+  <si>
+    <t>11;500|12;100|13;100</t>
+  </si>
+  <si>
+    <t>11;100|12;500|13;100</t>
+  </si>
+  <si>
+    <t>11;100|12;100|13;500</t>
+  </si>
+  <si>
+    <t>12;10</t>
+  </si>
+  <si>
+    <t>回廊中选择聂飞指示的方向</t>
+  </si>
+  <si>
+    <t>11;5|12;10|13;10</t>
+  </si>
+  <si>
+    <t>404选择谁出去看MV</t>
+  </si>
+  <si>
+    <t>11;10</t>
+  </si>
+  <si>
+    <t>看完MV苏醒后好感,选择凯瑟琳</t>
+  </si>
+  <si>
+    <t>看完MV苏醒后好感,选择聂飞</t>
+  </si>
+  <si>
+    <t>13;10</t>
+  </si>
+  <si>
+    <t>看完MV苏醒后好感,选择涂凌</t>
+  </si>
+  <si>
+    <t>11;5</t>
+  </si>
+  <si>
+    <t>指正冰酒手套</t>
+  </si>
+  <si>
     <t>LimitState</t>
   </si>
   <si>
@@ -90,100 +196,13 @@
   </si>
   <si>
     <t>ID:Quest</t>
-  </si>
-  <si>
-    <t>11;50</t>
-  </si>
-  <si>
-    <t>序章中凯瑟琳好感度+50</t>
-  </si>
-  <si>
-    <t>12;50</t>
-  </si>
-  <si>
-    <t>序章中聂飞好感度+50</t>
-  </si>
-  <si>
-    <t>13;50</t>
-  </si>
-  <si>
-    <t>序章中涂凌好感度+50</t>
-  </si>
-  <si>
-    <t>11;100</t>
-  </si>
-  <si>
-    <t>序章中凯瑟琳好感度+100</t>
-  </si>
-  <si>
-    <t>12;100</t>
-  </si>
-  <si>
-    <t>序章中聂飞好感度+100</t>
-  </si>
-  <si>
-    <t>13;100</t>
-  </si>
-  <si>
-    <t>序章中涂凌好感度+100</t>
-  </si>
-  <si>
-    <t>11;200|12;100</t>
-  </si>
-  <si>
-    <t>12;200|13;100</t>
-  </si>
-  <si>
-    <t>11;100|12;100|13;100</t>
-  </si>
-  <si>
-    <t>11;500|12;100|13;100</t>
-  </si>
-  <si>
-    <t>11;100|12;500|13;100</t>
-  </si>
-  <si>
-    <t>11;100|12;100|13;500</t>
-  </si>
-  <si>
-    <t>12;10</t>
-  </si>
-  <si>
-    <t>回廊中选择聂飞指示的方向</t>
-  </si>
-  <si>
-    <t>11;5|12;10|13;10</t>
-  </si>
-  <si>
-    <t>404选择谁出去看MV</t>
-  </si>
-  <si>
-    <t>11;10</t>
-  </si>
-  <si>
-    <t>看完MV苏醒后好感,选择凯瑟琳</t>
-  </si>
-  <si>
-    <t>看完MV苏醒后好感,选择聂飞</t>
-  </si>
-  <si>
-    <t>13;10</t>
-  </si>
-  <si>
-    <t>看完MV苏醒后好感,选择涂凌</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,144 +233,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,8 +241,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,19 +269,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399456770531327"/>
+        <fgColor theme="3" tint="0.39942625202185128"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.398907437360759"/>
+        <fgColor theme="3" tint="0.39887691885128329"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,188 +291,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -607,257 +315,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -865,82 +331,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1227,26 +649,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
     <col min="6" max="6" width="52.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1306,23 +729,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <f>B5*100+COUNTIF($B$5:B5,B5)</f>
         <v>101</v>
@@ -1334,16 +757,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <f>B6*100+COUNTIF($B$5:B6,B6)</f>
         <v>201</v>
@@ -1355,16 +778,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <f>B7*100+COUNTIF($B$5:B7,B7)</f>
         <v>301</v>
@@ -1376,16 +799,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <f>B8*100+COUNTIF($B$5:B8,B8)</f>
         <v>401</v>
@@ -1397,16 +820,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <f>B9*100+COUNTIF($B$5:B9,B9)</f>
         <v>402</v>
@@ -1418,16 +841,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <f>B10*100+COUNTIF($B$5:B10,B10)</f>
         <v>403</v>
@@ -1439,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <f>B11*100+COUNTIF($B$5:B11,B11)</f>
         <v>501</v>
@@ -1460,13 +883,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <f>B12*100+COUNTIF($B$5:B12,B12)</f>
         <v>502</v>
@@ -1478,13 +901,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <f>B13*100+COUNTIF($B$5:B13,B13)</f>
         <v>601</v>
@@ -1496,13 +919,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <f>B14*100+COUNTIF($B$5:B14,B14)</f>
         <v>602</v>
@@ -1514,13 +937,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <f>B15*100+COUNTIF($B$5:B15,B15)</f>
         <v>603</v>
@@ -1532,13 +955,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <f>B16*100+COUNTIF($B$5:B16,B16)</f>
         <v>604</v>
@@ -1550,13 +973,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <f>B17*100+COUNTIF($B$5:B17,B17)</f>
         <v>605</v>
@@ -1568,13 +991,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <f>B18*100+COUNTIF($B$5:B18,B18)</f>
         <v>606</v>
@@ -1586,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <f>B19*100+COUNTIF($B$5:B19,B19)</f>
         <v>607</v>
@@ -1604,13 +1027,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>701</v>
       </c>
@@ -1621,16 +1044,16 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>801</v>
       </c>
@@ -1641,16 +1064,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>901</v>
       </c>
@@ -1661,16 +1084,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>902</v>
       </c>
@@ -1681,16 +1104,16 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>903</v>
       </c>
@@ -1701,19 +1124,39 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>21001</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>